--- a/test_files/student_details.xlsx
+++ b/test_files/student_details.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\Projects\mini_Project\new\result_analysis\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\Projects\mini_Project\new\test2\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452C982-1F29-4A43-A192-C52A58C389A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6583E7-80DA-4189-BC4C-D2BA63780F99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1828BAC-F4C1-4271-ADBF-12D13A724DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="564">
   <si>
     <t>1</t>
   </si>
@@ -1718,19 +1712,29 @@
   </si>
   <si>
     <t>sec</t>
+  </si>
+  <si>
+    <t>19131A0541</t>
+  </si>
+  <si>
+    <t>280</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1771,17 +1775,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4711266A-BD5D-4EE4-86D8-CC018E0BBEE0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2093,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB8549D-9B35-4E43-A107-80C39B574818}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2536,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -2547,2644 +2556,4725 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D131">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D150">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D155">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D156">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D157">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D160">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D161">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D163">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D164">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D165">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D166">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D170">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D171">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D173">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D174">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D175">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D176">
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D177">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D178">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D180">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D184">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D185">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D186">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D187">
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D188">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D189">
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D190">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D191">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D192">
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D193">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D194">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D195">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D196">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D197">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D198">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D199">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D200">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D201">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D202">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D203">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D204">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D205">
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D206">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D207">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D208">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D209">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D210">
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D211">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D212">
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D213">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D214">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D215">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D216">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D217">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D218">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D219">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D220">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D221">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D222">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D223">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D224">
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D225">
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D226">
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D227">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D228">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D229">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D230">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D232">
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D233">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D234">
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D235">
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D236">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D237">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D238">
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D239">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D240">
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D241">
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D242">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D243">
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D244">
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D245">
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D246">
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D247">
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D249">
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D250">
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D251">
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D252">
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D253">
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D254">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D255">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D256">
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>516</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D261">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D264">
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D265">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D266">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D267">
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>532</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D268">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D269">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D270">
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D271">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D272">
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D273">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D274">
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D275">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D276">
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D277">
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D278">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D279">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D280">
         <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEF872B-A41A-4618-B079-BF2D70377CAD}">
+  <dimension ref="A1:F256"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="37.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F256" s="2" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
